--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2931.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2931.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.005208420169232</v>
+        <v>1.690834164619446</v>
       </c>
       <c r="B1">
-        <v>1.871420613677003</v>
+        <v>1.922191023826599</v>
       </c>
       <c r="C1">
-        <v>7.365636603440306</v>
+        <v>5.188684463500977</v>
       </c>
       <c r="D1">
-        <v>3.139362380215609</v>
+        <v>1.332329511642456</v>
       </c>
       <c r="E1">
-        <v>1.434818918755136</v>
+        <v>0.7423061728477478</v>
       </c>
     </row>
   </sheetData>
